--- a/medicine/Psychotrope/Brasserie_Saint-Germain/Brasserie_Saint-Germain.xlsx
+++ b/medicine/Psychotrope/Brasserie_Saint-Germain/Brasserie_Saint-Germain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie Saint-Germain est située à Aix-Noulette dans le département du Pas-de-Calais.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2003 : création de la brasserie avec une production de 2 800 hl
 2008 : production de 3 500 hl
@@ -545,11 +559,13 @@
           <t>Prix[1]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2015 : deux médailles d'argent pour les Pages 24 Réserve Hildegarde Blonde et Brune[2] (Concours Général Agricole - Salon de l'Agriculture de Paris 2015)
-2014 : quatre médailles d'argent pour les Page 24 Blanche, Réserve Hildegarde Blonde, Triple et Brune[3] (Concours Général Agricole - Salon de l'Agriculture de Paris 2014)
-La réserve Hildegarde Blonde a été médaillée huit fois au concours général agricole dans la catégorie blonde haute fermentation : quatre médailles d'or (2013, 2012, 2009, 2006), une médaille d'argent (2014), trois médailles de bronze[4] (2011, 2008, 2007). À ce jour (2016), c'est la bière la plus médaillée du Concours général agricole.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2015 : deux médailles d'argent pour les Pages 24 Réserve Hildegarde Blonde et Brune (Concours Général Agricole - Salon de l'Agriculture de Paris 2015)
+2014 : quatre médailles d'argent pour les Page 24 Blanche, Réserve Hildegarde Blonde, Triple et Brune (Concours Général Agricole - Salon de l'Agriculture de Paris 2014)
+La réserve Hildegarde Blonde a été médaillée huit fois au concours général agricole dans la catégorie blonde haute fermentation : quatre médailles d'or (2013, 2012, 2009, 2006), une médaille d'argent (2014), trois médailles de bronze (2011, 2008, 2007). À ce jour (2016), c'est la bière la plus médaillée du Concours général agricole.</t>
         </is>
       </c>
     </row>
